--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/skills.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/skills.xlsx
@@ -789,7 +789,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
@@ -867,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>10011001</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/skills.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/skills.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>技能名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -786,10 +786,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
@@ -880,6 +880,90 @@
       </c>
       <c r="I3" s="7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1000101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2000101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3000101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4000101</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5000101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6000101</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/kbe/tools/xlsx2py/rpgdemo/xlsxs/skills.xlsx
+++ b/kbe/tools/xlsx2py/rpgdemo/xlsxs/skills.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>技能名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -786,10 +786,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="17.25"/>
@@ -963,6 +963,20 @@
         <v>6000101</v>
       </c>
       <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7000101</v>
+      </c>
+      <c r="F10" t="s">
         <v>30</v>
       </c>
     </row>
